--- a/Factors.xlsx
+++ b/Factors.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
